--- a/overview/_downloads/60XX_IOMUX_V1.0.xlsx
+++ b/overview/_downloads/60XX_IOMUX_V1.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\数据手册上传\io表格\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LS_Software\CSK6_Docs\sprint\docs-csk6\overview\_downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1681,17 +1681,17 @@
   <dimension ref="A1:CU77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="2" topLeftCell="BC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BW39" sqref="BW39"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="7.6328125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="8.26953125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" style="13" customWidth="1"/>
     <col min="4" max="4" width="15" style="2" customWidth="1"/>
     <col min="5" max="5" width="17.1796875" style="13" customWidth="1"/>
     <col min="6" max="6" width="13.08984375" style="2" hidden="1" customWidth="1"/>
@@ -12151,7 +12151,7 @@
       <c r="A77" s="62"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mJ1e17Eqoyi3wbKTHslwJtzV2Nv4bftIY9mLTQFziE7ruryTleTXY7asQAVS15Y1pAXhgzUs2DSDPIUIbP3ykg==" saltValue="QOvFxEnvKu/3L9PG5e7vaA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" autoFilter="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WQinnk3AqVz+gMZIzGDo1ArqE+GT2jUUNyMDzftPXm/7mGiGFYAyAHTuye6wfoJaukTDDBkhfLvQFsgKvS2opw==" saltValue="N+/z3fAvFcuZnLw1dYktMA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" autoFilter="0"/>
   <mergeCells count="2">
     <mergeCell ref="L1:CQ1"/>
     <mergeCell ref="CR1:CU1"/>
